--- a/Sale House Project.xlsx
+++ b/Sale House Project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B04DB6-C565-4BCC-939C-D0323953A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E50440D-338F-41A4-B209-4C097EB85DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8DB87A7-76CB-4551-AD9B-40327D11E070}" name="Table1" displayName="Table1" ref="A1:D83" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D83" xr:uid="{F8DB87A7-76CB-4551-AD9B-40327D11E070}"/>
+  <autoFilter ref="A1:D83" xr:uid="{F8DB87A7-76CB-4551-AD9B-40327D11E070}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="High"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6816A030-23DD-4E78-AD30-08377F9E5BA3}" name="Variable" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8DA51873-74C9-4988-99D1-4F06ADD3D215}" name="Type" dataDxfId="2"/>
@@ -956,12 +962,13 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B82"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -992,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1050,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1086,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +1326,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1336,7 +1343,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1353,7 +1360,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1377,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1428,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1517,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1603,7 +1610,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -1656,7 +1663,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
@@ -1811,7 +1818,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
@@ -1828,7 +1835,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +1869,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
@@ -1896,7 +1903,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +1954,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -1964,7 +1971,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
@@ -1981,7 +1988,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="3" t="s">
         <v>75</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="3" t="s">
         <v>76</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
@@ -2074,7 +2081,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
@@ -2091,7 +2098,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="3" t="s">
         <v>80</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="3" t="s">
         <v>81</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
@@ -2146,7 +2153,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2170,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="3" t="s">
         <v>84</v>
       </c>
@@ -2180,7 +2187,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="3" t="s">
         <v>85</v>
       </c>
@@ -2197,7 +2204,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="3" t="s">
         <v>86</v>
       </c>
@@ -2214,7 +2221,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +2238,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="3" t="s">
         <v>88</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="3" t="s">
         <v>91</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -2320,7 +2327,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="3" t="s">
         <v>93</v>
       </c>
@@ -2350,7 +2357,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="3" t="s">
         <v>95</v>
       </c>
@@ -2380,7 +2387,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="5" t="s">
         <v>97</v>
       </c>
@@ -2393,7 +2400,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
